--- a/specifications/afs/Business intelligence systems - System Development - BI Project - Finance Systems - AFS Data Specification V4.44.xlsx
+++ b/specifications/afs/Business intelligence systems - System Development - BI Project - Finance Systems - AFS Data Specification V4.44.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\ShrForms\specifications\afs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5514F296-0BA3-42B1-AF77-6AF91FD38684}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03B04A7-2959-4419-B910-192222976C61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="601" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4316" uniqueCount="2467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4318" uniqueCount="2467">
   <si>
     <t>Revision History</t>
   </si>
@@ -7553,57 +7553,6 @@
     <t>AFSF032</t>
   </si>
   <si>
-    <t>Sector: Interest cover</t>
-  </si>
-  <si>
-    <t>Sector: Gearing</t>
-  </si>
-  <si>
-    <t>Sector: Voids</t>
-  </si>
-  <si>
-    <t>Sector: Arrears</t>
-  </si>
-  <si>
-    <t>Sector: Bad Debts</t>
-  </si>
-  <si>
-    <t>Sector: Staff costs/turnover</t>
-  </si>
-  <si>
-    <t>Sector: Key management personnel to staff costs</t>
-  </si>
-  <si>
-    <t>Sector: Turnover per unit</t>
-  </si>
-  <si>
-    <t>Sector: Responsive repairs to planned maintenance</t>
-  </si>
-  <si>
-    <t>Sector: Current ratio</t>
-  </si>
-  <si>
-    <t>Sector: Gross surplus/(deficit)</t>
-  </si>
-  <si>
-    <t>Sector: Net surplus/(deficit)</t>
-  </si>
-  <si>
-    <t>Sector: EBITDA / revenue (%)</t>
-  </si>
-  <si>
-    <t>Sector: Debt burden</t>
-  </si>
-  <si>
-    <t>Sector: Net debt per unit</t>
-  </si>
-  <si>
-    <t>Sector: Debt per unit</t>
-  </si>
-  <si>
-    <t>Sector: Inc from non-rental activities</t>
-  </si>
-  <si>
     <t>Amend after system test; add Ratio Sector medians</t>
   </si>
   <si>
@@ -7695,6 +7644,57 @@
   </si>
   <si>
     <t>Choice(yes_no_na.csv)</t>
+  </si>
+  <si>
+    <t>Sector Interest cover</t>
+  </si>
+  <si>
+    <t>Sector Gearing</t>
+  </si>
+  <si>
+    <t>Sector Voids</t>
+  </si>
+  <si>
+    <t>Sector Arrears</t>
+  </si>
+  <si>
+    <t>Sector Bad Debts</t>
+  </si>
+  <si>
+    <t>Sector Staff costs/turnover</t>
+  </si>
+  <si>
+    <t>Sector Key management personnel to staff costs</t>
+  </si>
+  <si>
+    <t>Sector Turnover per unit</t>
+  </si>
+  <si>
+    <t>Sector Responsive repairs to planned maintenance</t>
+  </si>
+  <si>
+    <t>Sector Current ratio</t>
+  </si>
+  <si>
+    <t>Sector Gross surplus/(deficit)</t>
+  </si>
+  <si>
+    <t>Sector Net surplus/(deficit)</t>
+  </si>
+  <si>
+    <t>Sector EBITDA / revenue (%)</t>
+  </si>
+  <si>
+    <t>Sector Debt burden</t>
+  </si>
+  <si>
+    <t>Sector Net debt per unit</t>
+  </si>
+  <si>
+    <t>Sector Debt per unit</t>
+  </si>
+  <si>
+    <t>Sector Inc from non-rental activities</t>
   </si>
 </sst>
 </file>
@@ -9216,6 +9216,23 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="36" fillId="14" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="14" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="1" fontId="36" fillId="14" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="36" fillId="14" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -9237,23 +9254,6 @@
     <xf numFmtId="0" fontId="18" fillId="18" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="36" fillId="14" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="14" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="5" applyFont="1"/>
-    <xf numFmtId="1" fontId="36" fillId="14" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="36" fillId="14" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="21">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -10181,10 +10181,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="276" t="s">
+      <c r="A1" s="282" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="276"/>
+      <c r="B1" s="282"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -10670,7 +10670,7 @@
         <v>1111</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>2436</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -11335,7 +11335,7 @@
   <dimension ref="A1:XEY9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11926,7 +11926,7 @@
   <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11948,27 +11948,29 @@
       <c r="E1" s="95"/>
     </row>
     <row r="2" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="285" t="s">
-        <v>2457</v>
+      <c r="B2" s="278" t="s">
+        <v>2440</v>
       </c>
       <c r="C2" s="95"/>
       <c r="D2" s="95"/>
       <c r="E2" s="95"/>
     </row>
     <row r="3" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="288" t="s">
+      <c r="A3" s="281" t="s">
         <v>1766</v>
       </c>
-      <c r="B3" s="287" t="str">
+      <c r="B3" s="280" t="str">
         <f>Data!H502</f>
         <v>March</v>
       </c>
-      <c r="C3" s="103"/>
+      <c r="C3" s="278" t="s">
+        <v>2310</v>
+      </c>
       <c r="D3" s="95"/>
       <c r="E3" s="95"/>
     </row>
     <row r="4" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="288" t="s">
+      <c r="A4" s="281" t="s">
         <v>978</v>
       </c>
       <c r="B4" s="198">
@@ -11983,7 +11985,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="288" t="s">
+      <c r="A5" s="281" t="s">
         <v>979</v>
       </c>
       <c r="B5" s="197" t="str">
@@ -11999,7 +12001,7 @@
       <c r="G5" s="133"/>
     </row>
     <row r="6" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="288" t="s">
+      <c r="A6" s="281" t="s">
         <v>1259</v>
       </c>
       <c r="B6" s="197" t="str">
@@ -12014,7 +12016,7 @@
       <c r="E6" s="103"/>
     </row>
     <row r="7" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="288" t="s">
+      <c r="A7" s="281" t="s">
         <v>980</v>
       </c>
       <c r="B7" s="197" t="str">
@@ -12026,7 +12028,7 @@
       <c r="E7" s="95"/>
     </row>
     <row r="8" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="288" t="s">
+      <c r="A8" s="281" t="s">
         <v>1235</v>
       </c>
       <c r="B8" s="197" t="str">
@@ -12035,7 +12037,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="288" t="s">
+      <c r="A9" s="281" t="s">
         <v>981</v>
       </c>
       <c r="B9" s="197" t="str">
@@ -12047,7 +12049,7 @@
       <c r="E9" s="95"/>
     </row>
     <row r="10" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="288" t="s">
+      <c r="A10" s="281" t="s">
         <v>1228</v>
       </c>
       <c r="B10" s="197">
@@ -12056,7 +12058,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="288" t="s">
+      <c r="A11" s="281" t="s">
         <v>1257</v>
       </c>
       <c r="B11" s="208" t="str">
@@ -12068,7 +12070,7 @@
       <c r="E11" s="103"/>
     </row>
     <row r="12" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="288" t="s">
+      <c r="A12" s="281" t="s">
         <v>1258</v>
       </c>
       <c r="B12" s="208" t="str">
@@ -12080,7 +12082,7 @@
       <c r="E12" s="103"/>
     </row>
     <row r="13" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="288" t="s">
+      <c r="A13" s="281" t="s">
         <v>1229</v>
       </c>
       <c r="B13" s="126" t="str">
@@ -12092,7 +12094,7 @@
       <c r="E13" s="120"/>
     </row>
     <row r="14" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="288" t="s">
+      <c r="A14" s="281" t="s">
         <v>1232</v>
       </c>
       <c r="B14" s="208">
@@ -12107,7 +12109,7 @@
       <c r="A15" s="225" t="s">
         <v>1765</v>
       </c>
-      <c r="B15" s="283"/>
+      <c r="B15" s="276"/>
       <c r="C15" s="103"/>
       <c r="D15" s="95"/>
       <c r="E15" s="103"/>
@@ -12116,7 +12118,7 @@
       <c r="A16" s="103" t="s">
         <v>983</v>
       </c>
-      <c r="B16" s="286" t="b">
+      <c r="B16" s="279" t="b">
         <f>Data!H515</f>
         <v>0</v>
       </c>
@@ -12128,7 +12130,7 @@
       <c r="A17" s="103" t="s">
         <v>984</v>
       </c>
-      <c r="B17" s="286" t="b">
+      <c r="B17" s="279" t="b">
         <f>Data!H516</f>
         <v>0</v>
       </c>
@@ -12140,7 +12142,7 @@
       <c r="A18" s="103" t="s">
         <v>986</v>
       </c>
-      <c r="B18" s="286" t="b">
+      <c r="B18" s="279" t="b">
         <f>Data!H517</f>
         <v>0</v>
       </c>
@@ -12152,7 +12154,7 @@
       <c r="A19" s="103" t="s">
         <v>987</v>
       </c>
-      <c r="B19" s="286" t="b">
+      <c r="B19" s="279" t="b">
         <f>Data!H518</f>
         <v>0</v>
       </c>
@@ -12164,7 +12166,7 @@
       <c r="A20" s="103" t="s">
         <v>988</v>
       </c>
-      <c r="B20" s="286" t="b">
+      <c r="B20" s="279" t="b">
         <f>Data!H519</f>
         <v>0</v>
       </c>
@@ -12176,7 +12178,7 @@
       <c r="A21" s="103" t="s">
         <v>985</v>
       </c>
-      <c r="B21" s="286" t="b">
+      <c r="B21" s="279" t="b">
         <f>Data!H520</f>
         <v>0</v>
       </c>
@@ -12185,10 +12187,10 @@
       <c r="E21" s="95"/>
     </row>
     <row r="22" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="285" t="s">
+      <c r="A22" s="278" t="s">
         <v>2310</v>
       </c>
-      <c r="B22" s="284"/>
+      <c r="B22" s="277"/>
       <c r="C22" s="103"/>
       <c r="D22" s="95"/>
       <c r="E22" s="95"/>
@@ -12234,8 +12236,8 @@
       <c r="G25" s="106"/>
     </row>
     <row r="26" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="280"/>
-      <c r="B26" s="280"/>
+      <c r="A26" s="286"/>
+      <c r="B26" s="286"/>
       <c r="C26" s="95"/>
       <c r="D26" s="95"/>
       <c r="E26" s="95"/>
@@ -12345,8 +12347,8 @@
       <c r="G36" s="106"/>
     </row>
     <row r="37" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="281"/>
-      <c r="B37" s="281"/>
+      <c r="A37" s="287"/>
+      <c r="B37" s="287"/>
       <c r="C37" s="103"/>
       <c r="D37" s="95"/>
       <c r="E37" s="103"/>
@@ -12976,19 +12978,19 @@
       <c r="H1" s="52"/>
     </row>
     <row r="2" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="282" t="s">
+      <c r="B2" s="288" t="s">
         <v>1410</v>
       </c>
-      <c r="C2" s="282"/>
-      <c r="D2" s="282" t="s">
+      <c r="C2" s="288"/>
+      <c r="D2" s="288" t="s">
         <v>1413</v>
       </c>
-      <c r="E2" s="282"/>
-      <c r="F2" s="282"/>
-      <c r="G2" s="282"/>
-      <c r="H2" s="282"/>
-      <c r="I2" s="282"/>
-      <c r="J2" s="282"/>
+      <c r="E2" s="288"/>
+      <c r="F2" s="288"/>
+      <c r="G2" s="288"/>
+      <c r="H2" s="288"/>
+      <c r="I2" s="288"/>
+      <c r="J2" s="288"/>
     </row>
     <row r="3" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="92" t="s">
@@ -13072,20 +13074,20 @@
       <c r="B6" s="93" t="s">
         <v>1421</v>
       </c>
-      <c r="C6" s="282" t="s">
+      <c r="C6" s="288" t="s">
         <v>1423</v>
       </c>
-      <c r="D6" s="282"/>
-      <c r="E6" s="282"/>
-      <c r="F6" s="282" t="s">
+      <c r="D6" s="288"/>
+      <c r="E6" s="288"/>
+      <c r="F6" s="288" t="s">
         <v>1427</v>
       </c>
-      <c r="G6" s="282"/>
-      <c r="H6" s="282"/>
-      <c r="I6" s="282" t="s">
+      <c r="G6" s="288"/>
+      <c r="H6" s="288"/>
+      <c r="I6" s="288" t="s">
         <v>1431</v>
       </c>
-      <c r="J6" s="282"/>
+      <c r="J6" s="288"/>
     </row>
     <row r="7" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="94" t="s">
@@ -14554,11 +14556,11 @@
   <dimension ref="A1:AH640"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="8" topLeftCell="I514" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="8" topLeftCell="B623" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A6" sqref="A6"/>
       <selection pane="topRight" activeCell="B6" sqref="B6"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="U520" sqref="U520"/>
+      <selection pane="bottomRight" activeCell="C641" sqref="C641"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -14976,12 +14978,12 @@
     <row r="9" spans="1:34" s="22" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="135"/>
       <c r="B9" s="135"/>
-      <c r="C9" s="277" t="s">
+      <c r="C9" s="283" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="277"/>
-      <c r="E9" s="277"/>
-      <c r="F9" s="277"/>
+      <c r="D9" s="283"/>
+      <c r="E9" s="283"/>
+      <c r="F9" s="283"/>
       <c r="G9" s="135"/>
       <c r="H9" s="135"/>
       <c r="I9" s="135"/>
@@ -16765,12 +16767,12 @@
     <row r="45" spans="1:34" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="135"/>
       <c r="B45" s="135"/>
-      <c r="C45" s="277" t="s">
+      <c r="C45" s="283" t="s">
         <v>79</v>
       </c>
-      <c r="D45" s="277"/>
-      <c r="E45" s="277"/>
-      <c r="F45" s="277"/>
+      <c r="D45" s="283"/>
+      <c r="E45" s="283"/>
+      <c r="F45" s="283"/>
       <c r="G45" s="135"/>
       <c r="H45" s="135"/>
       <c r="I45" s="135"/>
@@ -20219,12 +20221,12 @@
     <row r="114" spans="1:34" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="135"/>
       <c r="B114" s="135"/>
-      <c r="C114" s="277" t="s">
+      <c r="C114" s="283" t="s">
         <v>146</v>
       </c>
-      <c r="D114" s="277"/>
-      <c r="E114" s="277"/>
-      <c r="F114" s="277"/>
+      <c r="D114" s="283"/>
+      <c r="E114" s="283"/>
+      <c r="F114" s="283"/>
       <c r="G114" s="135"/>
       <c r="H114" s="135"/>
       <c r="I114" s="135"/>
@@ -23357,12 +23359,12 @@
     <row r="177" spans="1:34" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="135"/>
       <c r="B177" s="135"/>
-      <c r="C177" s="277" t="s">
+      <c r="C177" s="283" t="s">
         <v>256</v>
       </c>
-      <c r="D177" s="277"/>
-      <c r="E177" s="277"/>
-      <c r="F177" s="277"/>
+      <c r="D177" s="283"/>
+      <c r="E177" s="283"/>
+      <c r="F177" s="283"/>
       <c r="G177" s="135"/>
       <c r="H177" s="135"/>
       <c r="I177" s="135"/>
@@ -25484,11 +25486,11 @@
     <row r="220" spans="1:34" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="136"/>
       <c r="B220" s="136"/>
-      <c r="C220" s="277" t="s">
+      <c r="C220" s="283" t="s">
         <v>314</v>
       </c>
-      <c r="D220" s="277"/>
-      <c r="E220" s="277"/>
+      <c r="D220" s="283"/>
+      <c r="E220" s="283"/>
       <c r="F220" s="136"/>
       <c r="G220" s="136"/>
       <c r="H220" s="271"/>
@@ -38490,7 +38492,7 @@
       <c r="AD469" s="152"/>
       <c r="AE469" s="152"/>
       <c r="AF469" s="235" t="s">
-        <v>2437</v>
+        <v>2420</v>
       </c>
       <c r="AG469" s="152"/>
       <c r="AH469" s="152"/>
@@ -40070,7 +40072,7 @@
         <v>977</v>
       </c>
       <c r="D502" s="162" t="s">
-        <v>2458</v>
+        <v>2441</v>
       </c>
       <c r="E502" s="152"/>
       <c r="F502" s="152"/>
@@ -40278,7 +40280,7 @@
         <v>980</v>
       </c>
       <c r="D506" s="162" t="s">
-        <v>2459</v>
+        <v>2442</v>
       </c>
       <c r="E506" s="152"/>
       <c r="F506" s="152"/>
@@ -40296,7 +40298,7 @@
         <v>1292</v>
       </c>
       <c r="N506" s="193" t="b">
-        <f>H506&lt;&gt;"1"</f>
+        <f t="shared" ref="N506:N513" si="13">H506&lt;&gt;"1"</f>
         <v>1</v>
       </c>
       <c r="O506" s="47" t="s">
@@ -40333,7 +40335,7 @@
         <v>1235</v>
       </c>
       <c r="D507" s="162" t="s">
-        <v>2460</v>
+        <v>2443</v>
       </c>
       <c r="E507" s="152"/>
       <c r="F507" s="152"/>
@@ -40351,7 +40353,7 @@
         <v>1292</v>
       </c>
       <c r="N507" s="193" t="b">
-        <f>H507&lt;&gt;"1"</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="O507" s="47" t="s">
@@ -40388,7 +40390,7 @@
         <v>981</v>
       </c>
       <c r="D508" s="162" t="s">
-        <v>2461</v>
+        <v>2444</v>
       </c>
       <c r="E508" s="152"/>
       <c r="F508" s="152"/>
@@ -40406,7 +40408,7 @@
         <v>1292</v>
       </c>
       <c r="N508" s="193" t="b">
-        <f>H508&lt;&gt;"1"</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="O508" s="47" t="s">
@@ -40443,7 +40445,7 @@
         <v>1228</v>
       </c>
       <c r="D509" s="162" t="s">
-        <v>2460</v>
+        <v>2443</v>
       </c>
       <c r="E509" s="152"/>
       <c r="F509" s="152"/>
@@ -40461,7 +40463,7 @@
         <v>1292</v>
       </c>
       <c r="N509" s="193" t="b">
-        <f>H509&lt;&gt;"1"</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="O509" s="47" t="s">
@@ -40498,7 +40500,7 @@
         <v>1257</v>
       </c>
       <c r="D510" s="10" t="s">
-        <v>2463</v>
+        <v>2446</v>
       </c>
       <c r="E510" s="152"/>
       <c r="F510" s="152"/>
@@ -40516,7 +40518,7 @@
         <v>1292</v>
       </c>
       <c r="N510" s="193" t="b">
-        <f>H510&lt;&gt;"1"</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="O510" s="47" t="s">
@@ -40551,7 +40553,7 @@
         <v>1258</v>
       </c>
       <c r="D511" s="10" t="s">
-        <v>2463</v>
+        <v>2446</v>
       </c>
       <c r="E511" s="152"/>
       <c r="F511" s="152"/>
@@ -40569,7 +40571,7 @@
         <v>1292</v>
       </c>
       <c r="N511" s="193" t="b">
-        <f>H511&lt;&gt;"1"</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="O511" s="47" t="s">
@@ -40604,7 +40606,7 @@
         <v>1229</v>
       </c>
       <c r="D512" s="10" t="s">
-        <v>2462</v>
+        <v>2445</v>
       </c>
       <c r="E512" s="152"/>
       <c r="F512" s="152"/>
@@ -40622,7 +40624,7 @@
         <v>1292</v>
       </c>
       <c r="N512" s="193" t="b">
-        <f>H512&lt;&gt;"1"</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="O512" s="47" t="s">
@@ -40657,7 +40659,7 @@
         <v>1122</v>
       </c>
       <c r="D513" s="162" t="s">
-        <v>2464</v>
+        <v>2447</v>
       </c>
       <c r="E513" s="152"/>
       <c r="F513" s="152"/>
@@ -40675,7 +40677,7 @@
         <v>1292</v>
       </c>
       <c r="N513" s="193" t="b">
-        <f>H513&lt;&gt;"1"</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="O513" s="47" t="s">
@@ -40827,7 +40829,7 @@
       </c>
       <c r="M516" s="47"/>
       <c r="N516" s="36" t="b">
-        <f t="shared" ref="N516:N520" si="13">OR($H$515:$H$520)</f>
+        <f t="shared" ref="N516:N520" si="14">OR($H$515:$H$520)</f>
         <v>0</v>
       </c>
       <c r="O516" s="47" t="s">
@@ -40878,7 +40880,7 @@
       </c>
       <c r="M517" s="47"/>
       <c r="N517" s="36" t="b">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O517" s="47" t="s">
@@ -40929,7 +40931,7 @@
       </c>
       <c r="M518" s="47"/>
       <c r="N518" s="36" t="b">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O518" s="47" t="s">
@@ -40980,7 +40982,7 @@
       </c>
       <c r="M519" s="47"/>
       <c r="N519" s="36" t="b">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O519" s="47" t="s">
@@ -41031,7 +41033,7 @@
       </c>
       <c r="M520" s="47"/>
       <c r="N520" s="36" t="b">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O520" s="47" t="s">
@@ -41066,7 +41068,7 @@
         <v>991</v>
       </c>
       <c r="D521" s="162" t="s">
-        <v>2465</v>
+        <v>2448</v>
       </c>
       <c r="E521" s="152"/>
       <c r="F521" s="152"/>
@@ -41121,7 +41123,7 @@
         <v>992</v>
       </c>
       <c r="D522" s="162" t="s">
-        <v>2466</v>
+        <v>2449</v>
       </c>
       <c r="E522" s="152"/>
       <c r="F522" s="152"/>
@@ -42610,12 +42612,12 @@
     <row r="553" spans="1:34" s="22" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A553" s="135"/>
       <c r="B553" s="135"/>
-      <c r="C553" s="277" t="s">
+      <c r="C553" s="283" t="s">
         <v>1326</v>
       </c>
-      <c r="D553" s="277"/>
-      <c r="E553" s="277"/>
-      <c r="F553" s="277"/>
+      <c r="D553" s="283"/>
+      <c r="E553" s="283"/>
+      <c r="F553" s="283"/>
       <c r="G553" s="135"/>
       <c r="H553" s="135"/>
       <c r="I553" s="135"/>
@@ -43873,12 +43875,12 @@
     <row r="579" spans="1:34" s="22" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A579" s="135"/>
       <c r="B579" s="135"/>
-      <c r="C579" s="277" t="s">
+      <c r="C579" s="283" t="s">
         <v>1451</v>
       </c>
-      <c r="D579" s="277"/>
-      <c r="E579" s="277"/>
-      <c r="F579" s="277"/>
+      <c r="D579" s="283"/>
+      <c r="E579" s="283"/>
+      <c r="F579" s="283"/>
       <c r="G579" s="135"/>
       <c r="H579" s="135"/>
       <c r="I579" s="135"/>
@@ -45066,10 +45068,10 @@
     </row>
     <row r="605" spans="1:34" ht="153.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A605" s="255" t="s">
-        <v>2438</v>
+        <v>2421</v>
       </c>
       <c r="B605" s="253" t="s">
-        <v>2439</v>
+        <v>2422</v>
       </c>
       <c r="C605" s="166" t="s">
         <v>2371</v>
@@ -46007,10 +46009,10 @@
         <v>2402</v>
       </c>
       <c r="B624" s="274" t="s">
-        <v>2440</v>
+        <v>2423</v>
       </c>
       <c r="C624" s="274" t="s">
-        <v>2419</v>
+        <v>2450</v>
       </c>
       <c r="D624" s="273" t="s">
         <v>2376</v>
@@ -46057,10 +46059,10 @@
         <v>2403</v>
       </c>
       <c r="B625" s="274" t="s">
-        <v>2441</v>
+        <v>2424</v>
       </c>
       <c r="C625" s="274" t="s">
-        <v>2420</v>
+        <v>2451</v>
       </c>
       <c r="D625" s="273" t="s">
         <v>2376</v>
@@ -46107,10 +46109,10 @@
         <v>2404</v>
       </c>
       <c r="B626" s="274" t="s">
-        <v>2442</v>
+        <v>2425</v>
       </c>
       <c r="C626" s="274" t="s">
-        <v>2421</v>
+        <v>2452</v>
       </c>
       <c r="D626" s="273" t="s">
         <v>2376</v>
@@ -46157,10 +46159,10 @@
         <v>2405</v>
       </c>
       <c r="B627" s="274" t="s">
-        <v>2443</v>
+        <v>2426</v>
       </c>
       <c r="C627" s="274" t="s">
-        <v>2422</v>
+        <v>2453</v>
       </c>
       <c r="D627" s="273" t="s">
         <v>2376</v>
@@ -46207,10 +46209,10 @@
         <v>2406</v>
       </c>
       <c r="B628" s="274" t="s">
-        <v>2444</v>
+        <v>2427</v>
       </c>
       <c r="C628" s="274" t="s">
-        <v>2423</v>
+        <v>2454</v>
       </c>
       <c r="D628" s="273" t="s">
         <v>2376</v>
@@ -46257,10 +46259,10 @@
         <v>2407</v>
       </c>
       <c r="B629" s="274" t="s">
-        <v>2445</v>
+        <v>2428</v>
       </c>
       <c r="C629" s="274" t="s">
-        <v>2424</v>
+        <v>2455</v>
       </c>
       <c r="D629" s="273" t="s">
         <v>2376</v>
@@ -46307,10 +46309,10 @@
         <v>2408</v>
       </c>
       <c r="B630" s="274" t="s">
-        <v>2446</v>
+        <v>2429</v>
       </c>
       <c r="C630" s="274" t="s">
-        <v>2425</v>
+        <v>2456</v>
       </c>
       <c r="D630" s="273" t="s">
         <v>2376</v>
@@ -46357,10 +46359,10 @@
         <v>2409</v>
       </c>
       <c r="B631" s="274" t="s">
-        <v>2447</v>
+        <v>2430</v>
       </c>
       <c r="C631" s="274" t="s">
-        <v>2426</v>
+        <v>2457</v>
       </c>
       <c r="D631" s="273" t="s">
         <v>2363</v>
@@ -46407,10 +46409,10 @@
         <v>2410</v>
       </c>
       <c r="B632" s="274" t="s">
-        <v>2448</v>
+        <v>2431</v>
       </c>
       <c r="C632" s="274" t="s">
-        <v>2427</v>
+        <v>2458</v>
       </c>
       <c r="D632" s="273" t="s">
         <v>2377</v>
@@ -46457,10 +46459,10 @@
         <v>2411</v>
       </c>
       <c r="B633" s="274" t="s">
-        <v>2449</v>
+        <v>2432</v>
       </c>
       <c r="C633" s="274" t="s">
-        <v>2428</v>
+        <v>2459</v>
       </c>
       <c r="D633" s="273" t="s">
         <v>2377</v>
@@ -46507,10 +46509,10 @@
         <v>2412</v>
       </c>
       <c r="B634" s="274" t="s">
-        <v>2450</v>
+        <v>2433</v>
       </c>
       <c r="C634" s="274" t="s">
-        <v>2429</v>
+        <v>2460</v>
       </c>
       <c r="D634" s="273" t="s">
         <v>2376</v>
@@ -46557,10 +46559,10 @@
         <v>2413</v>
       </c>
       <c r="B635" s="274" t="s">
-        <v>2451</v>
+        <v>2434</v>
       </c>
       <c r="C635" s="274" t="s">
-        <v>2430</v>
+        <v>2461</v>
       </c>
       <c r="D635" s="273" t="s">
         <v>2376</v>
@@ -46607,10 +46609,10 @@
         <v>2414</v>
       </c>
       <c r="B636" s="274" t="s">
-        <v>2452</v>
+        <v>2435</v>
       </c>
       <c r="C636" s="274" t="s">
-        <v>2431</v>
+        <v>2462</v>
       </c>
       <c r="D636" s="273" t="s">
         <v>2376</v>
@@ -46657,10 +46659,10 @@
         <v>2415</v>
       </c>
       <c r="B637" s="274" t="s">
-        <v>2453</v>
+        <v>2436</v>
       </c>
       <c r="C637" s="274" t="s">
-        <v>2432</v>
+        <v>2463</v>
       </c>
       <c r="D637" s="273" t="s">
         <v>2377</v>
@@ -46707,10 +46709,10 @@
         <v>2416</v>
       </c>
       <c r="B638" s="274" t="s">
-        <v>2454</v>
+        <v>2437</v>
       </c>
       <c r="C638" s="274" t="s">
-        <v>2433</v>
+        <v>2464</v>
       </c>
       <c r="D638" s="273" t="s">
         <v>2363</v>
@@ -46757,10 +46759,10 @@
         <v>2417</v>
       </c>
       <c r="B639" s="274" t="s">
-        <v>2455</v>
+        <v>2438</v>
       </c>
       <c r="C639" s="274" t="s">
-        <v>2434</v>
+        <v>2465</v>
       </c>
       <c r="D639" s="273" t="s">
         <v>2363</v>
@@ -46807,10 +46809,10 @@
         <v>2418</v>
       </c>
       <c r="B640" s="274" t="s">
-        <v>2456</v>
+        <v>2439</v>
       </c>
       <c r="C640" s="274" t="s">
-        <v>2435</v>
+        <v>2466</v>
       </c>
       <c r="D640" s="273" t="s">
         <v>2376</v>
@@ -47386,7 +47388,9 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -47656,7 +47660,9 @@
       <c r="D12" s="78" t="s">
         <v>1521</v>
       </c>
-      <c r="E12" s="60"/>
+      <c r="E12" s="60" t="s">
+        <v>2310</v>
+      </c>
       <c r="F12" s="60"/>
       <c r="G12" s="60"/>
       <c r="H12" s="60"/>
@@ -47677,12 +47683,12 @@
         <f>Data!I101</f>
         <v>44298</v>
       </c>
-      <c r="E13" s="278" t="str">
+      <c r="E13" s="284" t="str">
         <f>Data!H108</f>
         <v>Balance at beginning of the year comment</v>
       </c>
-      <c r="F13" s="279"/>
-      <c r="G13" s="279"/>
+      <c r="F13" s="285"/>
+      <c r="G13" s="285"/>
       <c r="H13" s="60"/>
       <c r="J13" s="65"/>
       <c r="K13" s="51"/>
@@ -47704,12 +47710,12 @@
         <f>Data!I102</f>
         <v>0</v>
       </c>
-      <c r="E14" s="278" t="str">
+      <c r="E14" s="284" t="str">
         <f>Data!H109</f>
         <v>Issue of shares comment</v>
       </c>
-      <c r="F14" s="279"/>
-      <c r="G14" s="279"/>
+      <c r="F14" s="285"/>
+      <c r="G14" s="285"/>
       <c r="H14" s="60"/>
       <c r="J14" s="65"/>
       <c r="K14" s="51"/>
@@ -47731,12 +47737,12 @@
         <f>Data!I103</f>
         <v>0</v>
       </c>
-      <c r="E15" s="278" t="str">
+      <c r="E15" s="284" t="str">
         <f>Data!H110</f>
         <v>Cancellation of shares comment</v>
       </c>
-      <c r="F15" s="279"/>
-      <c r="G15" s="279"/>
+      <c r="F15" s="285"/>
+      <c r="G15" s="285"/>
       <c r="H15" s="60"/>
       <c r="J15" s="65"/>
       <c r="K15" s="51"/>
@@ -47758,12 +47764,12 @@
         <f>Data!I104</f>
         <v>120</v>
       </c>
-      <c r="E16" s="278" t="str">
+      <c r="E16" s="284" t="str">
         <f>Data!H111</f>
         <v>Surplus/(deficit) from statement of comprehensive income comment</v>
       </c>
-      <c r="F16" s="279"/>
-      <c r="G16" s="279"/>
+      <c r="F16" s="285"/>
+      <c r="G16" s="285"/>
       <c r="H16" s="60"/>
       <c r="J16" s="65"/>
       <c r="K16" s="51"/>
@@ -47785,12 +47791,12 @@
         <f>Data!I105</f>
         <v>0</v>
       </c>
-      <c r="E17" s="278" t="str">
+      <c r="E17" s="284" t="str">
         <f>Data!H112</f>
         <v>Transfer from revaluation reserve to revenue reserve comment</v>
       </c>
-      <c r="F17" s="279"/>
-      <c r="G17" s="279"/>
+      <c r="F17" s="285"/>
+      <c r="G17" s="285"/>
       <c r="H17" s="60"/>
       <c r="J17" s="65"/>
       <c r="K17" s="51"/>
@@ -47812,12 +47818,12 @@
         <f>Data!I106</f>
         <v>0</v>
       </c>
-      <c r="E18" s="278" t="str">
+      <c r="E18" s="284" t="str">
         <f>Data!H113</f>
         <v>Transfer of restricted expenditure from unrestricted reserve comment</v>
       </c>
-      <c r="F18" s="279"/>
-      <c r="G18" s="279"/>
+      <c r="F18" s="285"/>
+      <c r="G18" s="285"/>
       <c r="H18" s="60"/>
       <c r="J18" s="65"/>
       <c r="K18" s="51"/>
